--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="301">
   <si>
     <t>API Mode</t>
   </si>
@@ -919,6 +919,33 @@
   </si>
   <si>
     <t>RMA-0ICP-003</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-001</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-002</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAtAAM</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAuAAM</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAvAAM</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-1-3</t>
   </si>
 </sst>
 </file>
@@ -928,7 +955,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +975,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2734,7 +2833,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="149">
+  <borders count="155">
     <border>
       <left/>
       <right/>
@@ -3186,11 +3285,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="311">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3488,8 +3605,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="298" fillId="0" borderId="148" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="310" fillId="0" borderId="154" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4380,11 +4509,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4453125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.23046875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.23046875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4434,10 +4563,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4446,7 +4575,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4463,10 +4592,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4475,7 +4604,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4492,10 +4621,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4504,7 +4633,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="310">
   <si>
     <t>API Mode</t>
   </si>
@@ -946,6 +946,33 @@
   </si>
   <si>
     <t>RMA-QKT3-1-3</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-001</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-002</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrnAAE</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMroAAE</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrpAAE</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-1-3</t>
   </si>
 </sst>
 </file>
@@ -955,7 +982,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="323" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,6 +1002,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2833,7 +2932,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="155">
+  <borders count="161">
     <border>
       <left/>
       <right/>
@@ -3303,11 +3402,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3617,8 +3734,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="310" fillId="0" borderId="154" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="322" fillId="0" borderId="160" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4509,11 +4638,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.4453125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.41796875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.23046875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.921875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4563,10 +4692,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4575,7 +4704,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4592,10 +4721,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4604,7 +4733,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,10 +4750,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4633,7 +4762,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="319">
   <si>
     <t>API Mode</t>
   </si>
@@ -973,6 +973,33 @@
   </si>
   <si>
     <t>RMA-DFGZ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZGSG-001</t>
+  </si>
+  <si>
+    <t>RMA-ZGSG-002</t>
+  </si>
+  <si>
+    <t>RMA-ZGSG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYIAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZGSG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYJAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZGSG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNYKAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZGSG-1-3</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1009,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="323" x14ac:knownFonts="1">
+  <fonts count="335" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,6 +1029,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2932,7 +3031,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="161">
+  <borders count="167">
     <border>
       <left/>
       <right/>
@@ -3420,11 +3519,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="335">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3746,8 +3863,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="322" fillId="0" borderId="160" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="334" fillId="0" borderId="166" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4638,11 +4767,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.41796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.921875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7890625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4692,10 +4821,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4704,7 +4833,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4721,10 +4850,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4733,7 +4862,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4750,10 +4879,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4762,7 +4891,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
